--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Represents the collection of baseline patient data, risk factors, and the diagnostic decision, including notifications of confirmed or ruled-out cases.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -627,39 +630,41 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -667,26 +672,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -744,112 +749,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -865,10 +870,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -880,13 +885,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -937,13 +942,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
@@ -954,10 +959,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -965,10 +970,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -980,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1033,13 +1038,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1050,10 +1055,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1061,10 +1066,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1076,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1109,11 +1114,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1131,13 +1136,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1148,10 +1153,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1159,10 +1164,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1174,13 +1179,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1207,11 +1212,11 @@
         <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>20</v>
@@ -1229,13 +1234,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1246,10 +1251,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1257,10 +1262,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1272,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1305,11 +1310,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1327,13 +1332,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1344,10 +1349,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1355,10 +1360,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1370,13 +1375,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1427,13 +1432,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1444,10 +1449,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1455,10 +1460,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1470,13 +1475,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1527,13 +1532,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1544,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1555,10 +1560,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1570,13 +1575,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1627,13 +1632,13 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1644,10 +1649,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1655,10 +1660,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1670,13 +1675,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1703,11 +1708,11 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>20</v>
@@ -1725,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -1742,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1753,10 +1758,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1768,13 +1773,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1825,13 +1830,13 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -1842,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1853,10 +1858,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -1868,13 +1873,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1901,11 +1906,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -1923,13 +1928,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -1940,10 +1945,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1951,10 +1956,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -1966,13 +1971,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1999,11 +2004,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2021,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2038,10 +2043,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2049,10 +2054,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2064,13 +2069,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2121,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2138,10 +2143,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2149,10 +2154,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2164,13 +2169,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2197,11 +2202,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2219,13 +2224,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2236,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2247,10 +2252,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2262,13 +2267,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2319,13 +2324,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2336,10 +2341,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2347,10 +2352,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2362,13 +2367,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2419,13 +2424,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2436,10 +2441,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2447,10 +2452,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2462,13 +2467,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2519,13 +2524,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2536,10 +2541,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2547,10 +2552,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2562,13 +2567,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2619,13 +2624,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -2636,10 +2641,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2647,10 +2652,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -2662,13 +2667,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2695,11 +2700,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -2717,13 +2722,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -2734,10 +2739,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2745,10 +2750,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -2760,13 +2765,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2793,11 +2798,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -2815,13 +2820,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -2832,10 +2837,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2843,10 +2848,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -2858,13 +2863,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2891,11 +2896,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -2913,13 +2918,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
+    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>TB CS - HIV infection</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artStarted</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-history-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentHistoryVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.hivInfection</t>
@@ -335,7 +335,7 @@
     <t>TB CS - Confirmation method</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---confirmation-method-vs</t>
+    <t>http://example.org/ValueSet/TBCSConfirmationMethodVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.currentAddressOnMap</t>
@@ -350,7 +350,7 @@
     <t>TB CS - Site of disease</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---site-of-disease-vs</t>
+    <t>http://example.org/ValueSet/TBCSSiteOfDiseaseVS</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.artPatientId</t>
@@ -735,7 +735,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,6 +252,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>Execution date</t>
   </si>
   <si>
     <t>DiagnosisAndNotification.historyOfPreviousTreatment</t>
@@ -987,8 +990,12 @@
       <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1055,10 +1062,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1081,13 +1088,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1114,11 +1121,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1136,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1153,10 +1160,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1179,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1212,11 +1219,11 @@
         <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>20</v>
@@ -1234,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -1251,10 +1258,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1277,13 +1284,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1310,11 +1317,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1332,7 +1339,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>72</v>
@@ -1349,10 +1356,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1378,10 +1385,10 @@
         <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1432,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
@@ -1449,10 +1456,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1475,13 +1482,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1532,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -1549,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1575,13 +1582,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1632,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -1649,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1675,13 +1682,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1708,11 +1715,11 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>20</v>
@@ -1730,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
@@ -1747,10 +1754,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1776,10 +1783,10 @@
         <v>78</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1830,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -1847,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1873,13 +1880,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1906,11 +1913,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -1928,7 +1935,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -1945,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1971,13 +1978,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2004,11 +2011,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2026,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2043,10 +2050,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2069,13 +2076,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2126,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2143,10 +2150,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2169,13 +2176,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2202,11 +2209,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2224,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -2241,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2267,13 +2274,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2324,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2341,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2370,10 +2377,10 @@
         <v>78</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2424,7 +2431,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -2441,10 +2448,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2470,10 +2477,10 @@
         <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2524,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -2541,10 +2548,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2567,13 +2574,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2624,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
@@ -2641,10 +2648,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2667,13 +2674,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2700,11 +2707,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -2722,7 +2729,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -2739,10 +2746,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2765,13 +2772,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2798,11 +2805,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -2820,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
@@ -2837,10 +2844,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2863,13 +2870,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2896,11 +2903,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -2918,7 +2925,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosisAndNotification.xlsx
+++ b/StructureDefinition-DiagnosisAndNotification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
